--- a/Excel-output/Identify_New_Bikes.xlsx
+++ b/Excel-output/Identify_New_Bikes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="41">
   <si>
     <t>Launch Date</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Exp. Launch : October 2022</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
